--- a/biology/Botanique/Sõpruse_puiestee/Sõpruse_puiestee.xlsx
+++ b/biology/Botanique/Sõpruse_puiestee/Sõpruse_puiestee.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%B5pruse_puiestee</t>
+          <t>Sõpruse_puiestee</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le boulevard de l'Amitié (en estonien : Sõpruse puiestee) est une rue Tallinn en Estonie[1].
+Le boulevard de l'Amitié (en estonien : Sõpruse puiestee) est une rue Tallinn en Estonie.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%B5pruse_puiestee</t>
+          <t>Sõpruse_puiestee</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le boulevard Sõpruses traverse les arrondissements Kristiine et Mustamäe. La rue commence à l'intersection d'Endla tänav et de Tulika tänav, elle traverse Lilleküla en direction du sud-ouest, sépare les quartiers Sääse et Siili, traverse les quartiers Mustamäe VI et IX, V et VIII et III et VII et se termine au sud-ouest a son intersection de Ehitajate tee.
 Elle est prolongée par Akadeemia tee.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S%C3%B5pruse_puiestee</t>
+          <t>Sõpruse_puiestee</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,18 +560,57 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Institutions
-Sõpruse pst. 4A - Centre de jeunesse de Kristiine[2] ;
-Sõpruse pst. 5 — Centre de jour pour retraités et Maison sociale de Kristiine[3] ;
-Sõpruse pst. 5 – Centre de l'enfance et de la famille[4] ;
-Sõpruse pst. 161 - Maison des sports de Kristiine[5] ;
-Sõpruse pst. 182/184 - Centre de formation professionnelle de Tallinn (et)[6] ;
+          <t>Institutions</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sõpruse pst. 4A - Centre de jeunesse de Kristiine ;
+Sõpruse pst. 5 — Centre de jour pour retraités et Maison sociale de Kristiine ;
+Sõpruse pst. 5 – Centre de l'enfance et de la famille ;
+Sõpruse pst. 161 - Maison des sports de Kristiine ;
+Sõpruse pst. 182/184 - Centre de formation professionnelle de Tallinn (et) ;
 Sõpruse pst. 186B - Bibliothèque de Sääse (et) ;
-Sõpruse pst. 187 - Lycée technique de Tallinn (et)[7] ;
-Sõpruse pst. 234 - Jardin d'enfants Kikas[8] ;
-Sõpruse pst. 248 - Refuge pour nourrissons et enfants handicapés[9],
-Commerces
-Sõpruse pst. 153 - Magasin Lidl ;
+Sõpruse pst. 187 - Lycée technique de Tallinn (et) ;
+Sõpruse pst. 234 - Jardin d'enfants Kikas ;
+Sõpruse pst. 248 - Refuge pour nourrissons et enfants handicapés,</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sõpruse_puiestee</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%B5pruse_puiestee</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Lieux et monuments de la rue</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Commerces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sõpruse pst. 153 - Magasin Lidl ;
 Sõpruse pst. 171 - Magasin Maxima X ;
 Sõpruse pst. 174 - Hypermarché Sõpruse Rimi  ;
 Sõpruse pst. 201 - Centre commercial Magistral. ;
@@ -565,33 +618,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>S%C3%B5pruse_puiestee</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sõpruse_puiestee</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/S%C3%B5pruse_puiestee</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Transports</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les lignes de bus n° 10, 11, 13, 20, 20A, 24, 28, 67 ja 72  empruntent la rue[10].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les lignes de bus n° 10, 11, 13, 20, 20A, 24, 28, 67 ja 72  empruntent la rue.
 </t>
         </is>
       </c>
